--- a/data/trans_camb/P48_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P48_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>1,21</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-0,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 3,87</t>
+          <t>-1,99; 6,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 13,46</t>
+          <t>-2,25; 3,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 3,39</t>
+          <t>-2,68; 2,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 4,71</t>
+          <t>-1,68; 5,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 1,8</t>
+          <t>-3,29; 9,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 1,39</t>
+          <t>-6,81; 2,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,42</t>
+          <t>-6,98; 1,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 5,71</t>
+          <t>-5,42; 6,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,6</t>
+          <t>-1,07; 7,43</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-3,53; 2,14</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 2,0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 4,75</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>227,85%</t>
+          <t>131,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1088,59%</t>
+          <t>102,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>431,18%</t>
+          <t>91,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>144,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-21,57%</t>
+          <t>58,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-26,43%</t>
+          <t>-26,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>36,96%</t>
+          <t>-32,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>43,17%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>80,42%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-7,3%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-13,74%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>36,15%</t>
         </is>
       </c>
     </row>
@@ -806,32 +875,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,74; 141,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-61,93; 60,28</t>
+          <t>-49,38; 342,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-63,58; 53,98</t>
+          <t>-73,57; 119,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,94; 172,78</t>
+          <t>-73,0; 84,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,34; 300,56</t>
+          <t>-63,43; 255,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-46,96; 86,99</t>
+          <t>-31,6; 422,99</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-64,97; 122,49</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-58,45; 174,19</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-53,13; 247,39</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,52</t>
+          <t>-8,34</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>-9,3</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-6,31</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-7,1</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 10,01</t>
+          <t>-3,3; 9,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 3,15</t>
+          <t>-9,54; 0,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 3,39</t>
+          <t>-10,25; 0,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 6,63</t>
+          <t>-2,23; 10,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 0,4</t>
+          <t>-7,2; 6,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,1; -1,16</t>
+          <t>-14,56; -2,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 6,84</t>
+          <t>-15,5; -4,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 1,12</t>
+          <t>-7,39; 5,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 0,27</t>
+          <t>-3,76; 5,7</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-10,48; -2,52</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-10,87; -3,71</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; 6,25</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>57,17%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>-28,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,32%</t>
+          <t>-32,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>30,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-22,47%</t>
+          <t>-3,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-29,72%</t>
+          <t>-41,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>-46,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-13,45%</t>
+          <t>-4,31%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-20,08%</t>
+          <t>7,24%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-36,83%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-41,43%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9,49%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,03; 117,99</t>
+          <t>-19,87; 87,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,38; 37,37</t>
+          <t>-53,73; 8,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,48; 41,07</t>
+          <t>-55,72; 4,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 48,65</t>
+          <t>-13,8; 92,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,64; 2,94</t>
+          <t>-30,99; 40,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,87; -8,65</t>
+          <t>-59,38; -17,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,01; 61,35</t>
+          <t>-62,98; -25,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,72; 9,89</t>
+          <t>-30,99; 34,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 2,12</t>
+          <t>-18,7; 38,48</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-51,09; -16,47</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-53,85; -25,26</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-16,85; 41,84</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,95</t>
+          <t>-7,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-6,65</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-6,44</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>-7,29</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,0; -1,11</t>
+          <t>-17,58; 1,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 11,16</t>
+          <t>0,69; 13,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 11,57</t>
+          <t>-0,83; 12,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 2,11</t>
+          <t>-9,4; 7,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 6,45</t>
+          <t>-14,96; 1,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 6,76</t>
+          <t>-8,23; 6,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,67; -1,4</t>
+          <t>-7,55; 5,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 7,13</t>
+          <t>-5,74; 7,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 6,95</t>
+          <t>-13,41; -1,33</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 7,36</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 6,39</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,44; 5,52</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-9,58%</t>
+          <t>-9,11%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,16%</t>
+          <t>-1,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>-8,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>-1,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-8,18%</t>
+          <t>-1,74%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>-9,14%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,89; -1,33</t>
+          <t>-20,34; 2,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,98; 13,81</t>
+          <t>0,8; 17,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,13; 14,72</t>
+          <t>-0,96; 16,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 2,95</t>
+          <t>-10,82; 8,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 9,11</t>
+          <t>-19,04; 1,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 9,54</t>
+          <t>-10,28; 8,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,55; -1,8</t>
+          <t>-9,39; 7,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 9,25</t>
+          <t>-7,17; 10,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 9,13</t>
+          <t>-16,23; -1,7</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-3,12; 9,7</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-3,26; 8,52</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-6,64; 7,24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>8,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>11,33</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>9,81</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 6,28</t>
+          <t>-3,01; 9,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 6,9</t>
+          <t>-5,45; 8,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 6,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,32</t>
+          <t>1,51; 14,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 3,59</t>
+          <t>-3,97; 5,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 3,78</t>
+          <t>-5,93; 4,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 3,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 4,1</t>
+          <t>5,17; 17,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 4,15</t>
+          <t>-2,12; 6,4</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 5,47</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>5,01; 14,23</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>31,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>-1,61%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>48,51%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>6,96%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>39,33%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 22,28</t>
+          <t>-10,89; 38,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 23,97</t>
+          <t>-19,14; 34,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 24,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 15,44</t>
+          <t>5,23; 58,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 13,25</t>
+          <t>-15,78; 25,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 13,91</t>
+          <t>-23,82; 22,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 13,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 14,51</t>
+          <t>21,44; 80,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 14,75</t>
+          <t>-8,33; 26,67</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-14,9; 22,48</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19,99; 60,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2,32</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3,37</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7,0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6,29</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>6,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 7,07</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 7,17</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 7,37</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 11,35</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 4,92</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 3,35</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 4,27</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 10,06</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 4,71</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 4,39</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 4,58</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>3,78; 9,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>10,55%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>11,16%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>23,16%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3,95%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>21,51%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>7,06%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>22,32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-5,49; 24,53</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 25,35</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 26,57</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>8,7; 39,61</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-6,57; 18,08</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; 11,96</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-7,2; 15,47</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>8,74; 36,17</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 16,49</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-2,15; 15,91</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 16,01</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>12,07; 32,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
